--- a/biology/Botanique/Boechera_holboellii/Boechera_holboellii.xlsx
+++ b/biology/Botanique/Boechera_holboellii/Boechera_holboellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boechera holboellii est une espèce de plantes herbacées vivaces du genre Boechera, appartenant à la famille des Brassicaceae, que l'on trouve au Groenland. Sa cytologie a été abondamment étudiée par le botaniste danois Böcher (1909-1983). Sa distribution varie dans les études antérieures, incluant d'autres espèces polymorphes à plusieurs variétés dans certaines régions arctiques du Canada, mais des travaux depuis 2006 circonscrivent l'espèce strictement au Groenland[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boechera holboellii est une espèce de plantes herbacées vivaces du genre Boechera, appartenant à la famille des Brassicaceae, que l'on trouve au Groenland. Sa cytologie a été abondamment étudiée par le botaniste danois Böcher (1909-1983). Sa distribution varie dans les études antérieures, incluant d'autres espèces polymorphes à plusieurs variétés dans certaines régions arctiques du Canada, mais des travaux depuis 2006 circonscrivent l'espèce strictement au Groenland.
 L'épithète de cette espèce rappelle la mémoire de l'explorateur du Groenland, Carl Peter Holbøll (1795-1856).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonyme
 Arabis holboellii Hornem.
@@ -522,7 +536,7 @@
 Arabis holboelliana Trevir.
 Arabis lilacina Schrad.
 Erysimum holboellii (Hornem.) Kuntze
-Streptanthus virgatus Nutt.[3]</t>
+Streptanthus virgatus Nutt.</t>
         </is>
       </c>
     </row>
@@ -550,10 +564,12 @@
           <t>Espèces similaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le type de B. holboellii est diploïde et originaire du Groenland.
-Le botaniste M. D. Windham le distingue des espèces suivantes[4]:
+Le botaniste M. D. Windham le distingue des espèces suivantes:
 B. pendulocarpa, originaire des montagnes de l'ouest de l'Amérique du Nord
 B. collinsii, originaire des Montagnes Rocheuses
 B. polyantha, originaire de l'Idaho, du Montana, de l'Oregon et de l'État de Washington
